--- a/SchedulingData/dynamic14/pso/scheduling2_9.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling2_9.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>266.6</v>
+        <v>244.94</v>
       </c>
       <c r="D2" t="n">
-        <v>331.16</v>
+        <v>291.08</v>
       </c>
       <c r="E2" t="n">
-        <v>12.464</v>
+        <v>11.552</v>
       </c>
     </row>
     <row r="3">
@@ -485,93 +485,93 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>236.22</v>
+        <v>205.9</v>
       </c>
       <c r="D3" t="n">
-        <v>319.92</v>
+        <v>266.78</v>
       </c>
       <c r="E3" t="n">
-        <v>9.788</v>
+        <v>15.952</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>247.9</v>
+        <v>251.56</v>
       </c>
       <c r="D4" t="n">
-        <v>291.46</v>
+        <v>287.06</v>
       </c>
       <c r="E4" t="n">
-        <v>13.964</v>
+        <v>15.404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>267.64</v>
+        <v>209.68</v>
       </c>
       <c r="D5" t="n">
-        <v>316.74</v>
+        <v>274.68</v>
       </c>
       <c r="E5" t="n">
-        <v>10.996</v>
+        <v>12.232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>229.4</v>
+        <v>235.98</v>
       </c>
       <c r="D6" t="n">
-        <v>286.88</v>
+        <v>310.4</v>
       </c>
       <c r="E6" t="n">
-        <v>11.512</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>316.74</v>
+        <v>266.78</v>
       </c>
       <c r="D7" t="n">
-        <v>367.52</v>
+        <v>307.78</v>
       </c>
       <c r="E7" t="n">
-        <v>8.048</v>
+        <v>12.992</v>
       </c>
     </row>
     <row r="8">
@@ -580,17 +580,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>291.46</v>
+        <v>274.16</v>
       </c>
       <c r="D8" t="n">
-        <v>347.44</v>
+        <v>331.16</v>
       </c>
       <c r="E8" t="n">
-        <v>10.996</v>
+        <v>13.024</v>
       </c>
     </row>
     <row r="9">
@@ -599,17 +599,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>240.76</v>
+        <v>310.4</v>
       </c>
       <c r="D9" t="n">
-        <v>300.08</v>
+        <v>349.06</v>
       </c>
       <c r="E9" t="n">
-        <v>11.152</v>
+        <v>5.944</v>
       </c>
     </row>
     <row r="10">
@@ -618,74 +618,74 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>286.88</v>
+        <v>287.06</v>
       </c>
       <c r="D10" t="n">
-        <v>360.48</v>
+        <v>347.72</v>
       </c>
       <c r="E10" t="n">
-        <v>7.252</v>
+        <v>11.948</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>367.52</v>
+        <v>307.78</v>
       </c>
       <c r="D11" t="n">
-        <v>419.48</v>
+        <v>368.62</v>
       </c>
       <c r="E11" t="n">
-        <v>5.452</v>
+        <v>9.507999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>300.08</v>
+        <v>331.16</v>
       </c>
       <c r="D12" t="n">
-        <v>363.1</v>
+        <v>388.48</v>
       </c>
       <c r="E12" t="n">
-        <v>7.98</v>
+        <v>8.432</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>347.44</v>
+        <v>291.08</v>
       </c>
       <c r="D13" t="n">
-        <v>416.86</v>
+        <v>369.98</v>
       </c>
       <c r="E13" t="n">
-        <v>6.684</v>
+        <v>6.752</v>
       </c>
     </row>
     <row r="14">
@@ -694,79 +694,79 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>360.48</v>
+        <v>347.72</v>
       </c>
       <c r="D14" t="n">
-        <v>422.48</v>
+        <v>407.52</v>
       </c>
       <c r="E14" t="n">
-        <v>3.172</v>
+        <v>8.568</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>363.1</v>
+        <v>369.98</v>
       </c>
       <c r="D15" t="n">
-        <v>394.58</v>
+        <v>452.38</v>
       </c>
       <c r="E15" t="n">
-        <v>5.472</v>
+        <v>3.112</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>416.86</v>
+        <v>274.68</v>
       </c>
       <c r="D16" t="n">
-        <v>467.72</v>
+        <v>325.18</v>
       </c>
       <c r="E16" t="n">
-        <v>3.708</v>
+        <v>8.311999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>422.48</v>
+        <v>388.48</v>
       </c>
       <c r="D17" t="n">
-        <v>456.18</v>
+        <v>449.62</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9320000000000001</v>
+        <v>4.428</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -774,10 +774,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>456.18</v>
+        <v>452.38</v>
       </c>
       <c r="D18" t="n">
-        <v>565.62</v>
+        <v>532.86</v>
       </c>
       <c r="E18" t="n">
         <v>30</v>
@@ -785,56 +785,56 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>331.16</v>
+        <v>532.86</v>
       </c>
       <c r="D19" t="n">
-        <v>377.3</v>
+        <v>577.0599999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>8.98</v>
+        <v>26.28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>419.48</v>
+        <v>449.62</v>
       </c>
       <c r="D20" t="n">
-        <v>470.52</v>
+        <v>490.68</v>
       </c>
       <c r="E20" t="n">
-        <v>1.968</v>
+        <v>1.452</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>470.52</v>
+        <v>490.68</v>
       </c>
       <c r="D21" t="n">
-        <v>553.38</v>
+        <v>569.58</v>
       </c>
       <c r="E21" t="n">
         <v>30</v>
@@ -842,192 +842,192 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>553.38</v>
+        <v>349.06</v>
       </c>
       <c r="D22" t="n">
-        <v>604.1799999999999</v>
+        <v>435.02</v>
       </c>
       <c r="E22" t="n">
-        <v>26.62</v>
+        <v>1.968</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>467.72</v>
+        <v>435.02</v>
       </c>
       <c r="D23" t="n">
-        <v>546.58</v>
+        <v>512.98</v>
       </c>
       <c r="E23" t="n">
-        <v>0.432</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>546.58</v>
+        <v>368.62</v>
       </c>
       <c r="D24" t="n">
-        <v>647.22</v>
+        <v>466.22</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>4.348</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>377.3</v>
+        <v>577.0599999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>430.54</v>
+        <v>636.8</v>
       </c>
       <c r="E25" t="n">
-        <v>6.276</v>
+        <v>22.416</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>647.22</v>
+        <v>512.98</v>
       </c>
       <c r="D26" t="n">
-        <v>707.5599999999999</v>
+        <v>578.14</v>
       </c>
       <c r="E26" t="n">
-        <v>26.136</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>394.58</v>
+        <v>325.18</v>
       </c>
       <c r="D27" t="n">
-        <v>475.86</v>
+        <v>394.3</v>
       </c>
       <c r="E27" t="n">
-        <v>1.944</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>475.86</v>
+        <v>569.58</v>
       </c>
       <c r="D28" t="n">
-        <v>568.47</v>
+        <v>637.92</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>604.1799999999999</v>
+        <v>466.22</v>
       </c>
       <c r="D29" t="n">
-        <v>688.74</v>
+        <v>554.98</v>
       </c>
       <c r="E29" t="n">
-        <v>24.244</v>
+        <v>1.072</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>430.54</v>
+        <v>554.98</v>
       </c>
       <c r="D30" t="n">
-        <v>466.14</v>
+        <v>654.34</v>
       </c>
       <c r="E30" t="n">
-        <v>3.856</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>319.92</v>
+        <v>394.3</v>
       </c>
       <c r="D31" t="n">
-        <v>386.16</v>
+        <v>435.98</v>
       </c>
       <c r="E31" t="n">
-        <v>5.784</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="32">
@@ -1036,207 +1036,207 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>466.14</v>
+        <v>435.98</v>
       </c>
       <c r="D32" t="n">
-        <v>529.14</v>
+        <v>531.54</v>
       </c>
       <c r="E32" t="n">
-        <v>1.136</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>529.14</v>
+        <v>637.92</v>
       </c>
       <c r="D33" t="n">
-        <v>598.77</v>
+        <v>692.98</v>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>24.92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>568.47</v>
+        <v>531.54</v>
       </c>
       <c r="D34" t="n">
-        <v>637.95</v>
+        <v>602.8</v>
       </c>
       <c r="E34" t="n">
-        <v>27.192</v>
+        <v>27.024</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>688.74</v>
+        <v>602.8</v>
       </c>
       <c r="D35" t="n">
-        <v>755.24</v>
+        <v>660.5</v>
       </c>
       <c r="E35" t="n">
-        <v>20.224</v>
+        <v>24.384</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>386.16</v>
+        <v>578.14</v>
       </c>
       <c r="D36" t="n">
-        <v>443.56</v>
+        <v>629.02</v>
       </c>
       <c r="E36" t="n">
-        <v>3.144</v>
+        <v>24.656</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>637.95</v>
+        <v>636.8</v>
       </c>
       <c r="D37" t="n">
-        <v>679.01</v>
+        <v>690.98</v>
       </c>
       <c r="E37" t="n">
-        <v>24.216</v>
+        <v>19.608</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>707.5599999999999</v>
+        <v>629.02</v>
       </c>
       <c r="D38" t="n">
-        <v>760.6</v>
+        <v>672.26</v>
       </c>
       <c r="E38" t="n">
-        <v>23.432</v>
+        <v>21.952</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>443.56</v>
+        <v>407.52</v>
       </c>
       <c r="D39" t="n">
-        <v>528.87</v>
+        <v>469.8</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>528.87</v>
+        <v>672.26</v>
       </c>
       <c r="D40" t="n">
-        <v>602.37</v>
+        <v>735.2</v>
       </c>
       <c r="E40" t="n">
-        <v>24.84</v>
+        <v>19.248</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>598.77</v>
+        <v>469.8</v>
       </c>
       <c r="D41" t="n">
-        <v>680.97</v>
+        <v>538.1</v>
       </c>
       <c r="E41" t="n">
-        <v>26.92</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>602.37</v>
+        <v>692.98</v>
       </c>
       <c r="D42" t="n">
-        <v>660.71</v>
+        <v>738.3</v>
       </c>
       <c r="E42" t="n">
-        <v>22.136</v>
+        <v>22.008</v>
       </c>
     </row>
   </sheetData>
